--- a/labware/labware_offsets/OffSet_calculations.xlsx
+++ b/labware/labware_offsets/OffSet_calculations.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/OT2/labware/labware_offsets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2AD29123-AC40-4BD3-8396-338D9ED4CD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2B8A19-53DA-4228-BADF-0B0B604B83B4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{2AD29123-AC40-4BD3-8396-338D9ED4CD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D61CBBD-32E5-4313-AD5E-23F26B83E4D9}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="15390" windowHeight="9563" xr2:uid="{3740223A-CEFA-4A8C-BD63-5BEB0924D59F}"/>
+    <workbookView xWindow="14303" yWindow="3953" windowWidth="20715" windowHeight="13154" xr2:uid="{3740223A-CEFA-4A8C-BD63-5BEB0924D59F}"/>
   </bookViews>
   <sheets>
-    <sheet name="MO" sheetId="1" r:id="rId1"/>
+    <sheet name="WALL.E" sheetId="2" r:id="rId1"/>
+    <sheet name="EVE" sheetId="4" r:id="rId2"/>
+    <sheet name="MO" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
   <si>
     <t>x_offset_p20</t>
   </si>
@@ -112,6 +114,9 @@
   </si>
   <si>
     <t>50mL_tubes</t>
+  </si>
+  <si>
+    <t>15mL_50mLtubes</t>
   </si>
 </sst>
 </file>
@@ -579,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E03C868-9FAF-4DDC-9DE2-ACD0949D309C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03861DA7-6D17-4AB0-B161-D7622E7FEE6B}">
   <dimension ref="A1:P348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -651,6 +656,4470 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="e">
+        <f>ROUND((AVERAGE(B2, E2)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <f t="shared" ref="I2:J17" si="0">ROUND((AVERAGE(C2, F2)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="e">
+        <f t="shared" ref="H3:J66" si="1">ROUND((AVERAGE(B3, E3)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4">
+        <v>-0.2</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>-0.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>-0.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7">
+        <v>0.3</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="H8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="H12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="H15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="H26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="H28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="H29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="H30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+      <c r="H31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="H32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="H33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+      <c r="H34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+      <c r="H35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="H36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="H37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="H38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="H39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="H40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="H41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="H42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="H43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="H44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="H45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+      <c r="H46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="H47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="H48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="H49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="H50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+      <c r="H51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="H52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="H53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="5"/>
+      <c r="H54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
+      <c r="H55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="5"/>
+      <c r="H56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="5"/>
+      <c r="H57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="5"/>
+      <c r="H58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="H59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="H60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="H61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="5"/>
+      <c r="H62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="5"/>
+      <c r="H63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="5"/>
+      <c r="H64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="H65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="5"/>
+      <c r="H66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="5"/>
+      <c r="H67" t="e">
+        <f t="shared" ref="H67:J84" si="2">ROUND((AVERAGE(B67, E67)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
+      <c r="H68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="H69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="5"/>
+      <c r="H70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="5"/>
+      <c r="H71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" s="5"/>
+      <c r="H72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="5"/>
+      <c r="H73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" s="5"/>
+      <c r="H74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J74" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="H75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="5"/>
+      <c r="H76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="5"/>
+      <c r="H77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="5"/>
+      <c r="H78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="H79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="5"/>
+      <c r="H80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="5"/>
+      <c r="H81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="H82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="5"/>
+      <c r="H83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="H84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" s="5"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" s="5"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" s="5"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" s="5"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" s="5"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" s="5"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" s="5"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="5"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="5"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" s="5"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" s="5"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" s="5"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" s="5"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" s="5"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" s="5"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" s="5"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" s="5"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" s="5"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" s="5"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" s="5"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" s="5"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" s="5"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" s="5"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" s="5"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" s="5"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" s="5"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" s="5"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="5"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" s="5"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" s="5"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" s="5"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" s="5"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="5"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" s="5"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" s="5"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="5"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="5"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="5"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="5"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="5"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="5"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" s="5"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" s="5"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="5"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" s="5"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" s="5"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" s="5"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" s="5"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" s="5"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" s="5"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" s="5"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" s="5"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" s="5"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="5"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="5"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="5"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="5"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="5"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="5"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="5"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="5"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" s="5"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" s="5"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" s="5"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" s="5"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" s="5"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" s="5"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="5"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="5"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="5"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="5"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="5"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="5"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="5"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="5"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" s="5"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" s="5"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" s="5"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" s="5"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" s="5"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" s="5"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" s="5"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" s="5"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" s="5"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" s="5"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" s="5"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" s="5"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" s="5"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" s="5"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" s="5"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" s="5"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" s="5"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" s="5"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" s="5"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" s="5"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" s="5"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" s="5"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" s="5"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" s="5"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" s="5"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" s="5"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="5"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303" s="5"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305" s="5"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A306" s="5"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A307" s="5"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A308" s="5"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A309" s="5"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A311" s="5"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A312" s="5"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A313" s="5"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A315" s="5"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A316" s="5"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A317" s="5"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A318" s="5"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A319" s="5"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A320" s="5"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321" s="5"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322" s="5"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324" s="5"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325" s="5"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326" s="5"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327" s="5"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328" s="5"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329" s="5"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330" s="5"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331" s="5"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332" s="5"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333" s="5"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334" s="5"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335" s="5"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336" s="5"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337" s="5"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338" s="5"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339" s="5"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340" s="5"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342" s="5"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344" s="5"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346" s="5"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347" s="5"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204EDC82-0DB3-442A-A7FB-8D98A2419832}">
+  <dimension ref="A1:P348"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.06640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="e">
+        <f>ROUND((AVERAGE(B2, E2)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <f t="shared" ref="I2:J17" si="0">ROUND((AVERAGE(C2, F2)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="e">
+        <f t="shared" ref="H3:J66" si="1">ROUND((AVERAGE(B3, E3)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4">
+        <v>-0.2</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>-0.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>-0.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7">
+        <v>0.3</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="H8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="H12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="H15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="H26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="H28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="H29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="H30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+      <c r="H31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="H32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="H33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+      <c r="H34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+      <c r="H35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="H36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="H37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="H38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="H39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="H40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="H41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="H42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="H43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="H44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="H45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+      <c r="H46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="H47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="H48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="H49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="H50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+      <c r="H51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="H52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="H53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="5"/>
+      <c r="H54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
+      <c r="H55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="5"/>
+      <c r="H56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="5"/>
+      <c r="H57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="5"/>
+      <c r="H58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="H59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="H60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="H61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="5"/>
+      <c r="H62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="5"/>
+      <c r="H63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="5"/>
+      <c r="H64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="H65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="5"/>
+      <c r="H66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="5"/>
+      <c r="H67" t="e">
+        <f t="shared" ref="H67:J84" si="2">ROUND((AVERAGE(B67, E67)), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
+      <c r="H68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="H69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="5"/>
+      <c r="H70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="5"/>
+      <c r="H71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" s="5"/>
+      <c r="H72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="5"/>
+      <c r="H73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" s="5"/>
+      <c r="H74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J74" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="H75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="5"/>
+      <c r="H76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="5"/>
+      <c r="H77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="5"/>
+      <c r="H78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="H79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="5"/>
+      <c r="H80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="5"/>
+      <c r="H81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="H82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="5"/>
+      <c r="H83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="H84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" s="5"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" s="5"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" s="5"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" s="5"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" s="5"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" s="5"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" s="5"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="5"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="5"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" s="5"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" s="5"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" s="5"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" s="5"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" s="5"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" s="5"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" s="5"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" s="5"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" s="5"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" s="5"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" s="5"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" s="5"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" s="5"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" s="5"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" s="5"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" s="5"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" s="5"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" s="5"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="5"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" s="5"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" s="5"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" s="5"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" s="5"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="5"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" s="5"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" s="5"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="5"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="5"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="5"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="5"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="5"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="5"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" s="5"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" s="5"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="5"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" s="5"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" s="5"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" s="5"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" s="5"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" s="5"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" s="5"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" s="5"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" s="5"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" s="5"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="5"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="5"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="5"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="5"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="5"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="5"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="5"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="5"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" s="5"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" s="5"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" s="5"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" s="5"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" s="5"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" s="5"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="5"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="5"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="5"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="5"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="5"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="5"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="5"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="5"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" s="5"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" s="5"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" s="5"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" s="5"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" s="5"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" s="5"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" s="5"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" s="5"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" s="5"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" s="5"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" s="5"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" s="5"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" s="5"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" s="5"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" s="5"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" s="5"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" s="5"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" s="5"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" s="5"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" s="5"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" s="5"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" s="5"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" s="5"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" s="5"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" s="5"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" s="5"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="5"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303" s="5"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305" s="5"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A306" s="5"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A307" s="5"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A308" s="5"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A309" s="5"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A311" s="5"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A312" s="5"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A313" s="5"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A315" s="5"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A316" s="5"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A317" s="5"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A318" s="5"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A319" s="5"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A320" s="5"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321" s="5"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322" s="5"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324" s="5"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325" s="5"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326" s="5"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327" s="5"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328" s="5"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329" s="5"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330" s="5"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331" s="5"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332" s="5"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333" s="5"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334" s="5"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335" s="5"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336" s="5"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337" s="5"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338" s="5"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339" s="5"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340" s="5"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342" s="5"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344" s="5"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346" s="5"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347" s="5"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E03C868-9FAF-4DDC-9DE2-ACD0949D309C}">
+  <dimension ref="A1:P348"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.06640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B2">
         <v>0.4</v>
       </c>
@@ -996,7 +5465,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>

--- a/labware/labware_offsets/OffSet_calculations.xlsx
+++ b/labware/labware_offsets/OffSet_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/OT2/labware/labware_offsets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{2AD29123-AC40-4BD3-8396-338D9ED4CD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D61CBBD-32E5-4313-AD5E-23F26B83E4D9}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{2AD29123-AC40-4BD3-8396-338D9ED4CD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E1A6F3-325D-4761-8584-D30E7EF5C0D7}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="3953" windowWidth="20715" windowHeight="13154" xr2:uid="{3740223A-CEFA-4A8C-BD63-5BEB0924D59F}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15390" windowHeight="9563" xr2:uid="{3740223A-CEFA-4A8C-BD63-5BEB0924D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="WALL.E" sheetId="2" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:P348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -656,6 +656,15 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>-0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.6</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
@@ -665,17 +674,17 @@
       <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="e">
+      <c r="H2">
         <f>ROUND((AVERAGE(B2, E2)), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
+        <v>-0.3</v>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:J17" si="0">ROUND((AVERAGE(C2, F2)), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
       </c>
       <c r="K2">
         <v>0.3</v>
@@ -703,20 +712,26 @@
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="e">
+      <c r="E3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="17">
+        <v>-0.7</v>
+      </c>
+      <c r="H3" s="18">
         <f t="shared" ref="H3:J66" si="1">ROUND((AVERAGE(B3, E3)), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
       </c>
       <c r="K3" s="18">
         <v>0.1</v>
@@ -735,19 +750,35 @@
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
       </c>
       <c r="K4">
         <v>-0.2</v>
@@ -763,19 +794,35 @@
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="H5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -791,19 +838,35 @@
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="H6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0.8</v>
@@ -819,19 +882,35 @@
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-0.6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>0.3</v>
@@ -847,19 +926,35 @@
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="H8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -909,17 +1004,35 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="E11">
+        <v>-0.3</v>
+      </c>
+      <c r="F11">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
